--- a/data/georgia_census/samegrelo/walenjixa/average_wages.xlsx
+++ b/data/georgia_census/samegrelo/walenjixa/average_wages.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3357718-EE54-472C-ADB8-C0A433A1B52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8ABD60-7A1A-4771-9F50-823DA05342FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="315" windowWidth="13305" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1665" windowWidth="14340" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tsalenjikha" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>persons</t>
+    <t>Average monthly remuneration of employed persons of business sector in Tsalenjikha</t>
   </si>
   <si>
-    <t>Number of employees of business sector in Tsalenjikha Municipality</t>
+    <t>Gel</t>
   </si>
   <si>
-    <t>Number of employees</t>
+    <t xml:space="preserve">Average monthly remuneration </t>
   </si>
   <si>
     <t xml:space="preserve">  Of which:    Women</t>
@@ -37,7 +37,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -55,12 +55,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -73,6 +67,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -135,32 +135,28 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -170,6 +166,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="7" customWidth="1"/>
-    <col min="2" max="15" width="8.7109375" style="7" customWidth="1"/>
-    <col min="16" max="256" width="9.140625" style="7"/>
+    <col min="1" max="1" width="26.85546875" style="7" customWidth="1"/>
+    <col min="2" max="10" width="8.7109375" style="7" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="7"/>
     <col min="257" max="257" width="27.5703125" style="7" customWidth="1"/>
     <col min="258" max="265" width="13" style="7" customWidth="1"/>
     <col min="266" max="512" width="9.140625" style="7"/>
@@ -710,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -721,161 +719,162 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
         <v>2014</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>2015</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2016</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2017</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>2018</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>2019</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>2020</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>2021</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>2022</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>2023</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
-        <v>693.36658177200002</v>
-      </c>
-      <c r="C4" s="11">
-        <v>799.33501237099995</v>
-      </c>
-      <c r="D4" s="11">
-        <v>829.54372867200004</v>
-      </c>
-      <c r="E4" s="11">
-        <v>807.30934579899997</v>
-      </c>
-      <c r="F4" s="11">
-        <v>802.38682454800005</v>
-      </c>
-      <c r="G4" s="11">
-        <v>710.75404604400001</v>
-      </c>
-      <c r="H4" s="11">
-        <v>628.02875098699997</v>
-      </c>
-      <c r="I4" s="11">
-        <v>786.35463007600003</v>
-      </c>
-      <c r="J4" s="11">
-        <v>640.94615383300004</v>
-      </c>
-      <c r="K4" s="11">
-        <v>814</v>
-      </c>
-      <c r="L4" s="11">
-        <v>420.499999</v>
+      <c r="B4" s="9">
+        <v>441</v>
+      </c>
+      <c r="C4" s="9">
+        <v>489.4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>322.39999999999998</v>
+      </c>
+      <c r="E4" s="9">
+        <v>654.5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>537.79999999999995</v>
+      </c>
+      <c r="G4" s="9">
+        <v>423.87718846315374</v>
+      </c>
+      <c r="H4" s="9">
+        <v>863.58788546519077</v>
+      </c>
+      <c r="I4" s="9">
+        <v>795.8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1053</v>
+      </c>
+      <c r="K4" s="9">
+        <v>913.7</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1490.3190607477063</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>140.794038809</v>
-      </c>
-      <c r="C5" s="12">
-        <v>207.763915134</v>
-      </c>
-      <c r="D5" s="12">
-        <v>215.38298448699999</v>
-      </c>
-      <c r="E5" s="12">
-        <v>193.42923834600001</v>
-      </c>
-      <c r="F5" s="12">
-        <v>285.90840221299999</v>
-      </c>
-      <c r="G5" s="12">
-        <v>222.92208824400001</v>
-      </c>
-      <c r="H5" s="12">
-        <v>107.438662643</v>
-      </c>
-      <c r="I5" s="12">
-        <v>395.57551066299999</v>
-      </c>
-      <c r="J5" s="12">
-        <v>187.093406585</v>
-      </c>
-      <c r="K5" s="12">
-        <v>224</v>
-      </c>
-      <c r="L5" s="12">
-        <v>92.966666665999995</v>
+      <c r="B5" s="10">
+        <v>186.16107429755399</v>
+      </c>
+      <c r="C5" s="10">
+        <v>232.16952744559899</v>
+      </c>
+      <c r="D5" s="10">
+        <v>204.55649655413001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>305.340439642121</v>
+      </c>
+      <c r="F5" s="10">
+        <v>345.2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>212.5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>308.51212195989302</v>
+      </c>
+      <c r="I5" s="10">
+        <v>376.44588661940901</v>
+      </c>
+      <c r="J5" s="10">
+        <v>347.88654273868298</v>
+      </c>
+      <c r="K5" s="10">
+        <v>507.3</v>
+      </c>
+      <c r="L5" s="10">
+        <v>549.64488466609635</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
-        <v>552.57254296300005</v>
-      </c>
-      <c r="C6" s="13">
-        <v>591.571097237</v>
-      </c>
-      <c r="D6" s="13">
-        <v>614.160744185</v>
-      </c>
-      <c r="E6" s="13">
-        <v>613.88010745300005</v>
-      </c>
-      <c r="F6" s="13">
-        <v>516.478422335</v>
-      </c>
-      <c r="G6" s="13">
-        <v>487.8319578</v>
-      </c>
-      <c r="H6" s="13">
-        <v>520.59008834400004</v>
-      </c>
-      <c r="I6" s="13">
-        <v>390.77911941299999</v>
-      </c>
-      <c r="J6" s="13">
-        <v>453.85274724800001</v>
-      </c>
-      <c r="K6" s="13">
-        <v>590</v>
-      </c>
-      <c r="L6" s="13">
-        <v>327.53333233400002</v>
+      <c r="B6" s="11">
+        <v>505.95121508509698</v>
+      </c>
+      <c r="C6" s="11">
+        <v>579.69697431923703</v>
+      </c>
+      <c r="D6" s="11">
+        <v>363.670608489774</v>
+      </c>
+      <c r="E6" s="11">
+        <v>764.541374984718</v>
+      </c>
+      <c r="F6" s="11">
+        <v>644.4</v>
+      </c>
+      <c r="G6" s="11">
+        <v>520.5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>978.14365406665604</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1220.2360912797999</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1343.6586309464501</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1068.5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1757.3188862186464</v>
       </c>
     </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1098,13 +1097,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8036C4A8-92DF-4FD6-9599-7F7770344AAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF15EE4-DA2E-402B-B4B6-A9F37501CA58}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D2C33E-69B0-458E-8776-D105CD162717}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE211A77-66DC-4775-A540-8E6EF7BE5728}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D0CF9F0-B230-4D1A-9950-6504152E1629}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB8B776-15BA-424D-97E8-20DECA604341}"/>
 </file>